--- a/新北.xlsx
+++ b/新北.xlsx
@@ -496,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D8" t="n">
         <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10">
